--- a/assets/data/data.xlsx
+++ b/assets/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eho/Library/CloudStorage/Dropbox/Muristalden DB/SJ 22-23/22-23 9 Wissenschaftswoche/Daten und Datenbearbeitung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b2a49a69e5c71acb/Desktop/Wissenschaftswoche/bubbles-muristalden-main/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23423E50-EC75-154F-AB19-B15172ED1439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{23423E50-EC75-154F-AB19-B15172ED1439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{727658AA-6740-4C6A-AD91-ADF0DA1D7E7A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27060" xr2:uid="{D69983AE-9EDF-3646-8C8F-265A08494B66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D69983AE-9EDF-3646-8C8F-265A08494B66}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="47">
   <si>
     <t>2h-3h</t>
   </si>
@@ -178,13 +178,16 @@
   <si>
     <t>informiert-yt</t>
   </si>
+  <si>
+    <t>whatsapp</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;CHF&quot;;[Red]\-#,##0\ &quot;CHF&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ &quot;CHF&quot;;[Red]\-#,##0\ &quot;CHF&quot;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -195,7 +198,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,6 +232,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -281,10 +290,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -599,30 +609,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{635402A8-EA80-DC4F-B160-AB1A802D8230}">
-  <dimension ref="A1:W286"/>
+  <dimension ref="A1:X286"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.625" customWidth="1"/>
     <col min="7" max="8" width="16.5" customWidth="1"/>
     <col min="9" max="14" width="23" customWidth="1"/>
-    <col min="15" max="15" width="77.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="77.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.625" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="23" customWidth="1"/>
     <col min="21" max="21" width="20" customWidth="1"/>
-    <col min="22" max="22" width="22.6640625" customWidth="1"/>
-    <col min="23" max="23" width="27.6640625" customWidth="1"/>
+    <col min="22" max="22" width="22.625" customWidth="1"/>
+    <col min="23" max="23" width="27.625" customWidth="1"/>
+    <col min="24" max="24" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -692,8 +703,11 @@
       <c r="W1" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X1" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -716,7 +730,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="1">
-        <f t="shared" ref="H2:H65" si="0">G2^2</f>
+        <f>G2^2</f>
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -764,8 +778,11 @@
       <c r="W2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -788,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" si="0"/>
+        <f>G3^2</f>
         <v>25</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -836,8 +853,11 @@
       <c r="W3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -860,7 +880,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="0"/>
+        <f>G4^2</f>
         <v>25</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -908,8 +928,11 @@
       <c r="W4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -932,7 +955,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="0"/>
+        <f>G5^2</f>
         <v>25</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -980,8 +1003,11 @@
       <c r="W5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1004,7 +1030,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="0"/>
+        <f>G6^2</f>
         <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -1052,8 +1078,11 @@
       <c r="W6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1076,7 +1105,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="0"/>
+        <f>G7^2</f>
         <v>9</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -1124,8 +1153,11 @@
       <c r="W7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1148,7 +1180,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="0"/>
+        <f>G8^2</f>
         <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -1196,8 +1228,11 @@
       <c r="W8" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1220,7 +1255,7 @@
         <v>5</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="0"/>
+        <f>G9^2</f>
         <v>25</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -1268,8 +1303,11 @@
       <c r="W9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1292,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="0"/>
+        <f>G10^2</f>
         <v>9</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -1340,8 +1378,11 @@
       <c r="W10" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1364,7 +1405,7 @@
         <v>6</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="0"/>
+        <f>G11^2</f>
         <v>36</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -1412,8 +1453,11 @@
       <c r="W11" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1436,7 +1480,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="0"/>
+        <f>G12^2</f>
         <v>16</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -1484,8 +1528,11 @@
       <c r="W12" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1508,7 +1555,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="0"/>
+        <f>G13^2</f>
         <v>25</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -1556,8 +1603,11 @@
       <c r="W13" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1580,7 +1630,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="0"/>
+        <f>G14^2</f>
         <v>16</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -1628,8 +1678,11 @@
       <c r="W14" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1652,7 +1705,7 @@
         <v>6</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="0"/>
+        <f>G15^2</f>
         <v>36</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -1700,8 +1753,11 @@
       <c r="W15" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1724,7 +1780,7 @@
         <v>2</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="0"/>
+        <f>G16^2</f>
         <v>4</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -1772,8 +1828,11 @@
       <c r="W16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1796,7 +1855,7 @@
         <v>3</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="0"/>
+        <f>G17^2</f>
         <v>9</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -1844,8 +1903,11 @@
       <c r="W17" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1868,7 +1930,7 @@
         <v>6</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="0"/>
+        <f>G18^2</f>
         <v>36</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -1916,8 +1978,11 @@
       <c r="W18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1940,7 +2005,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="0"/>
+        <f>G19^2</f>
         <v>9</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -1988,8 +2053,11 @@
       <c r="W19" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2012,7 +2080,7 @@
         <v>5</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="0"/>
+        <f>G20^2</f>
         <v>25</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -2060,8 +2128,11 @@
       <c r="W20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2084,7 +2155,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="0"/>
+        <f>G21^2</f>
         <v>9</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -2132,8 +2203,11 @@
       <c r="W21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2156,7 +2230,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="0"/>
+        <f>G22^2</f>
         <v>16</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -2204,8 +2278,11 @@
       <c r="W22" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2228,7 +2305,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="0"/>
+        <f>G23^2</f>
         <v>16</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -2276,8 +2353,11 @@
       <c r="W23" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2300,7 +2380,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="0"/>
+        <f>G24^2</f>
         <v>4</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -2348,8 +2428,11 @@
       <c r="W24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2372,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="0"/>
+        <f>G25^2</f>
         <v>1</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -2420,8 +2503,11 @@
       <c r="W25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2444,7 +2530,7 @@
         <v>3</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="0"/>
+        <f>G26^2</f>
         <v>9</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -2492,8 +2578,11 @@
       <c r="W26" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2516,7 +2605,7 @@
         <v>3</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="0"/>
+        <f>G27^2</f>
         <v>9</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -2564,8 +2653,11 @@
       <c r="W27" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2588,7 +2680,7 @@
         <v>3</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="0"/>
+        <f>G28^2</f>
         <v>9</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -2636,8 +2728,11 @@
       <c r="W28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2660,7 +2755,7 @@
         <v>3</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="0"/>
+        <f>G29^2</f>
         <v>9</v>
       </c>
       <c r="I29" s="1" t="s">
@@ -2708,8 +2803,11 @@
       <c r="W29" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2732,7 +2830,7 @@
         <v>6</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="0"/>
+        <f>G30^2</f>
         <v>36</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -2780,8 +2878,11 @@
       <c r="W30" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2804,7 +2905,7 @@
         <v>4</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="0"/>
+        <f>G31^2</f>
         <v>16</v>
       </c>
       <c r="I31" s="1" t="s">
@@ -2852,8 +2953,11 @@
       <c r="W31" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2876,7 +2980,7 @@
         <v>6</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="0"/>
+        <f>G32^2</f>
         <v>36</v>
       </c>
       <c r="I32" s="1" t="s">
@@ -2924,8 +3028,11 @@
       <c r="W32" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2948,7 +3055,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="0"/>
+        <f>G33^2</f>
         <v>4</v>
       </c>
       <c r="I33" s="1" t="s">
@@ -2996,8 +3103,11 @@
       <c r="W33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3020,7 +3130,7 @@
         <v>4</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="0"/>
+        <f>G34^2</f>
         <v>16</v>
       </c>
       <c r="I34" s="1" t="s">
@@ -3068,8 +3178,11 @@
       <c r="W34" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3092,7 +3205,7 @@
         <v>3</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="0"/>
+        <f>G35^2</f>
         <v>9</v>
       </c>
       <c r="I35" s="1" t="s">
@@ -3140,8 +3253,11 @@
       <c r="W35" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3164,7 +3280,7 @@
         <v>5</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="0"/>
+        <f>G36^2</f>
         <v>25</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -3212,8 +3328,11 @@
       <c r="W36" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3236,7 +3355,7 @@
         <v>4</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="0"/>
+        <f>G37^2</f>
         <v>16</v>
       </c>
       <c r="I37" s="1" t="s">
@@ -3284,8 +3403,11 @@
       <c r="W37" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3308,7 +3430,7 @@
         <v>2</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="0"/>
+        <f>G38^2</f>
         <v>4</v>
       </c>
       <c r="I38" s="1" t="s">
@@ -3356,8 +3478,11 @@
       <c r="W38" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3380,7 +3505,7 @@
         <v>3</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="0"/>
+        <f>G39^2</f>
         <v>9</v>
       </c>
       <c r="I39" s="1" t="s">
@@ -3428,8 +3553,11 @@
       <c r="W39" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3452,7 +3580,7 @@
         <v>4</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="0"/>
+        <f>G40^2</f>
         <v>16</v>
       </c>
       <c r="I40" s="1" t="s">
@@ -3500,8 +3628,11 @@
       <c r="W40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3524,7 +3655,7 @@
         <v>4</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="0"/>
+        <f>G41^2</f>
         <v>16</v>
       </c>
       <c r="I41" s="1" t="s">
@@ -3572,8 +3703,11 @@
       <c r="W41" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3596,7 +3730,7 @@
         <v>4</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="0"/>
+        <f>G42^2</f>
         <v>16</v>
       </c>
       <c r="I42" s="1" t="s">
@@ -3644,8 +3778,11 @@
       <c r="W42" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3668,7 +3805,7 @@
         <v>3</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="0"/>
+        <f>G43^2</f>
         <v>9</v>
       </c>
       <c r="I43" s="1" t="s">
@@ -3716,8 +3853,11 @@
       <c r="W43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3740,7 +3880,7 @@
         <v>6</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="0"/>
+        <f>G44^2</f>
         <v>36</v>
       </c>
       <c r="I44" s="1" t="s">
@@ -3788,8 +3928,11 @@
       <c r="W44" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3812,7 +3955,7 @@
         <v>6</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" si="0"/>
+        <f>G45^2</f>
         <v>36</v>
       </c>
       <c r="I45" s="1" t="s">
@@ -3860,8 +4003,11 @@
       <c r="W45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3884,7 +4030,7 @@
         <v>5</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" si="0"/>
+        <f>G46^2</f>
         <v>25</v>
       </c>
       <c r="I46" s="1" t="s">
@@ -3932,8 +4078,11 @@
       <c r="W46" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3956,7 +4105,7 @@
         <v>5</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="0"/>
+        <f>G47^2</f>
         <v>25</v>
       </c>
       <c r="I47" s="1" t="s">
@@ -4004,8 +4153,11 @@
       <c r="W47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4028,7 +4180,7 @@
         <v>6</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="0"/>
+        <f>G48^2</f>
         <v>36</v>
       </c>
       <c r="I48" s="1" t="s">
@@ -4076,8 +4228,11 @@
       <c r="W48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4100,7 +4255,7 @@
         <v>6</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" si="0"/>
+        <f>G49^2</f>
         <v>36</v>
       </c>
       <c r="I49" s="1" t="s">
@@ -4148,8 +4303,11 @@
       <c r="W49" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4172,7 +4330,7 @@
         <v>3</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="0"/>
+        <f>G50^2</f>
         <v>9</v>
       </c>
       <c r="I50" s="1" t="s">
@@ -4220,8 +4378,11 @@
       <c r="W50" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4244,7 +4405,7 @@
         <v>6</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="0"/>
+        <f>G51^2</f>
         <v>36</v>
       </c>
       <c r="I51" s="1" t="s">
@@ -4292,8 +4453,11 @@
       <c r="W51" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4316,7 +4480,7 @@
         <v>3</v>
       </c>
       <c r="H52" s="1">
-        <f t="shared" si="0"/>
+        <f>G52^2</f>
         <v>9</v>
       </c>
       <c r="I52" s="1" t="s">
@@ -4364,8 +4528,11 @@
       <c r="W52" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4388,7 +4555,7 @@
         <v>2</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="0"/>
+        <f>G53^2</f>
         <v>4</v>
       </c>
       <c r="I53" s="1" t="s">
@@ -4436,8 +4603,11 @@
       <c r="W53" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4460,7 +4630,7 @@
         <v>6</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="0"/>
+        <f>G54^2</f>
         <v>36</v>
       </c>
       <c r="I54" s="1" t="s">
@@ -4508,8 +4678,11 @@
       <c r="W54" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4532,7 +4705,7 @@
         <v>3</v>
       </c>
       <c r="H55" s="1">
-        <f t="shared" si="0"/>
+        <f>G55^2</f>
         <v>9</v>
       </c>
       <c r="I55" s="1" t="s">
@@ -4580,8 +4753,11 @@
       <c r="W55" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4604,7 +4780,7 @@
         <v>4</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="0"/>
+        <f>G56^2</f>
         <v>16</v>
       </c>
       <c r="I56" s="1" t="s">
@@ -4652,8 +4828,11 @@
       <c r="W56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4676,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="0"/>
+        <f>G57^2</f>
         <v>1</v>
       </c>
       <c r="I57" s="1" t="s">
@@ -4724,8 +4903,11 @@
       <c r="W57" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4748,7 +4930,7 @@
         <v>2</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" si="0"/>
+        <f>G58^2</f>
         <v>4</v>
       </c>
       <c r="I58" s="1" t="s">
@@ -4796,8 +4978,11 @@
       <c r="W58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4820,7 +5005,7 @@
         <v>4</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" si="0"/>
+        <f>G59^2</f>
         <v>16</v>
       </c>
       <c r="I59" s="1" t="s">
@@ -4868,8 +5053,11 @@
       <c r="W59" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4892,7 +5080,7 @@
         <v>4</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="0"/>
+        <f>G60^2</f>
         <v>16</v>
       </c>
       <c r="I60" s="1" t="s">
@@ -4940,8 +5128,11 @@
       <c r="W60" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4964,7 +5155,7 @@
         <v>2</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" si="0"/>
+        <f>G61^2</f>
         <v>4</v>
       </c>
       <c r="I61" s="1" t="s">
@@ -5012,8 +5203,11 @@
       <c r="W61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -5036,7 +5230,7 @@
         <v>2</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" si="0"/>
+        <f>G62^2</f>
         <v>4</v>
       </c>
       <c r="I62" s="1" t="s">
@@ -5084,8 +5278,11 @@
       <c r="W62" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -5108,7 +5305,7 @@
         <v>4</v>
       </c>
       <c r="H63" s="1">
-        <f t="shared" si="0"/>
+        <f>G63^2</f>
         <v>16</v>
       </c>
       <c r="I63" s="1" t="s">
@@ -5156,8 +5353,11 @@
       <c r="W63" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -5180,7 +5380,7 @@
         <v>3</v>
       </c>
       <c r="H64" s="1">
-        <f t="shared" si="0"/>
+        <f>G64^2</f>
         <v>9</v>
       </c>
       <c r="I64" s="1" t="s">
@@ -5228,8 +5428,11 @@
       <c r="W64" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -5252,7 +5455,7 @@
         <v>4</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" si="0"/>
+        <f>G65^2</f>
         <v>16</v>
       </c>
       <c r="I65" s="1" t="s">
@@ -5300,8 +5503,11 @@
       <c r="W65" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -5324,7 +5530,7 @@
         <v>2</v>
       </c>
       <c r="H66" s="1">
-        <f t="shared" ref="H66:H129" si="1">G66^2</f>
+        <f>G66^2</f>
         <v>4</v>
       </c>
       <c r="I66" s="1" t="s">
@@ -5372,8 +5578,11 @@
       <c r="W66" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -5396,7 +5605,7 @@
         <v>6</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" si="1"/>
+        <f>G67^2</f>
         <v>36</v>
       </c>
       <c r="I67" s="1" t="s">
@@ -5444,8 +5653,11 @@
       <c r="W67" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -5468,7 +5680,7 @@
         <v>2</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" si="1"/>
+        <f>G68^2</f>
         <v>4</v>
       </c>
       <c r="I68" s="1" t="s">
@@ -5516,8 +5728,11 @@
       <c r="W68" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -5540,7 +5755,7 @@
         <v>2</v>
       </c>
       <c r="H69" s="1">
-        <f t="shared" si="1"/>
+        <f>G69^2</f>
         <v>4</v>
       </c>
       <c r="I69" s="1" t="s">
@@ -5588,8 +5803,11 @@
       <c r="W69" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -5612,7 +5830,7 @@
         <v>5</v>
       </c>
       <c r="H70" s="1">
-        <f t="shared" si="1"/>
+        <f>G70^2</f>
         <v>25</v>
       </c>
       <c r="I70" s="1" t="s">
@@ -5660,8 +5878,11 @@
       <c r="W70" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -5684,7 +5905,7 @@
         <v>3</v>
       </c>
       <c r="H71" s="1">
-        <f t="shared" si="1"/>
+        <f>G71^2</f>
         <v>9</v>
       </c>
       <c r="I71" s="1" t="s">
@@ -5732,8 +5953,11 @@
       <c r="W71" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -5756,7 +5980,7 @@
         <v>4</v>
       </c>
       <c r="H72" s="1">
-        <f t="shared" si="1"/>
+        <f>G72^2</f>
         <v>16</v>
       </c>
       <c r="I72" s="1" t="s">
@@ -5804,8 +6028,11 @@
       <c r="W72" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -5828,7 +6055,7 @@
         <v>3</v>
       </c>
       <c r="H73" s="1">
-        <f t="shared" si="1"/>
+        <f>G73^2</f>
         <v>9</v>
       </c>
       <c r="I73" s="1" t="s">
@@ -5876,8 +6103,11 @@
       <c r="W73" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -5900,7 +6130,7 @@
         <v>1</v>
       </c>
       <c r="H74" s="1">
-        <f t="shared" si="1"/>
+        <f>G74^2</f>
         <v>1</v>
       </c>
       <c r="I74" s="1" t="s">
@@ -5948,8 +6178,11 @@
       <c r="W74" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -5972,7 +6205,7 @@
         <v>2</v>
       </c>
       <c r="H75" s="1">
-        <f t="shared" si="1"/>
+        <f>G75^2</f>
         <v>4</v>
       </c>
       <c r="I75" s="1" t="s">
@@ -6020,8 +6253,11 @@
       <c r="W75" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -6044,7 +6280,7 @@
         <v>2</v>
       </c>
       <c r="H76" s="1">
-        <f t="shared" si="1"/>
+        <f>G76^2</f>
         <v>4</v>
       </c>
       <c r="I76" s="1" t="s">
@@ -6092,8 +6328,11 @@
       <c r="W76" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -6116,7 +6355,7 @@
         <v>2</v>
       </c>
       <c r="H77" s="1">
-        <f t="shared" si="1"/>
+        <f>G77^2</f>
         <v>4</v>
       </c>
       <c r="I77" s="1" t="s">
@@ -6164,8 +6403,11 @@
       <c r="W77" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -6188,7 +6430,7 @@
         <v>4</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" si="1"/>
+        <f>G78^2</f>
         <v>16</v>
       </c>
       <c r="I78" s="1" t="s">
@@ -6236,8 +6478,11 @@
       <c r="W78" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -6260,7 +6505,7 @@
         <v>3</v>
       </c>
       <c r="H79" s="1">
-        <f t="shared" si="1"/>
+        <f>G79^2</f>
         <v>9</v>
       </c>
       <c r="I79" s="1" t="s">
@@ -6308,8 +6553,11 @@
       <c r="W79" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -6332,7 +6580,7 @@
         <v>3</v>
       </c>
       <c r="H80" s="1">
-        <f t="shared" si="1"/>
+        <f>G80^2</f>
         <v>9</v>
       </c>
       <c r="I80" s="1" t="s">
@@ -6380,8 +6628,11 @@
       <c r="W80" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -6404,7 +6655,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="1">
-        <f t="shared" si="1"/>
+        <f>G81^2</f>
         <v>1</v>
       </c>
       <c r="I81" s="1" t="s">
@@ -6452,8 +6703,11 @@
       <c r="W81" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -6476,7 +6730,7 @@
         <v>2</v>
       </c>
       <c r="H82" s="1">
-        <f t="shared" si="1"/>
+        <f>G82^2</f>
         <v>4</v>
       </c>
       <c r="I82" s="1" t="s">
@@ -6524,8 +6778,11 @@
       <c r="W82" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -6548,7 +6805,7 @@
         <v>2</v>
       </c>
       <c r="H83" s="1">
-        <f t="shared" si="1"/>
+        <f>G83^2</f>
         <v>4</v>
       </c>
       <c r="I83" s="1" t="s">
@@ -6596,8 +6853,11 @@
       <c r="W83" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -6620,7 +6880,7 @@
         <v>2</v>
       </c>
       <c r="H84" s="1">
-        <f t="shared" si="1"/>
+        <f>G84^2</f>
         <v>4</v>
       </c>
       <c r="I84" s="1" t="s">
@@ -6668,8 +6928,11 @@
       <c r="W84" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -6692,7 +6955,7 @@
         <v>4</v>
       </c>
       <c r="H85" s="1">
-        <f t="shared" si="1"/>
+        <f>G85^2</f>
         <v>16</v>
       </c>
       <c r="I85" s="1" t="s">
@@ -6740,8 +7003,11 @@
       <c r="W85" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -6764,7 +7030,7 @@
         <v>5</v>
       </c>
       <c r="H86" s="1">
-        <f t="shared" si="1"/>
+        <f>G86^2</f>
         <v>25</v>
       </c>
       <c r="I86" s="1" t="s">
@@ -6812,8 +7078,11 @@
       <c r="W86" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -6836,7 +7105,7 @@
         <v>3</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" si="1"/>
+        <f>G87^2</f>
         <v>9</v>
       </c>
       <c r="I87" s="1" t="s">
@@ -6884,8 +7153,11 @@
       <c r="W87" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -6908,7 +7180,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="1">
-        <f t="shared" si="1"/>
+        <f>G88^2</f>
         <v>1</v>
       </c>
       <c r="I88" s="1" t="s">
@@ -6956,8 +7228,11 @@
       <c r="W88" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -6980,7 +7255,7 @@
         <v>2</v>
       </c>
       <c r="H89" s="1">
-        <f t="shared" si="1"/>
+        <f>G89^2</f>
         <v>4</v>
       </c>
       <c r="I89" s="1" t="s">
@@ -7028,8 +7303,11 @@
       <c r="W89" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -7052,7 +7330,7 @@
         <v>2</v>
       </c>
       <c r="H90" s="1">
-        <f t="shared" si="1"/>
+        <f>G90^2</f>
         <v>4</v>
       </c>
       <c r="I90" s="1" t="s">
@@ -7100,8 +7378,11 @@
       <c r="W90" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -7124,7 +7405,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="1">
-        <f t="shared" si="1"/>
+        <f>G91^2</f>
         <v>1</v>
       </c>
       <c r="I91" s="1" t="s">
@@ -7172,8 +7453,11 @@
       <c r="W91" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -7196,7 +7480,7 @@
         <v>2</v>
       </c>
       <c r="H92" s="1">
-        <f t="shared" si="1"/>
+        <f>G92^2</f>
         <v>4</v>
       </c>
       <c r="I92" s="1" t="s">
@@ -7244,8 +7528,11 @@
       <c r="W92" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -7268,7 +7555,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="1">
-        <f t="shared" si="1"/>
+        <f>G93^2</f>
         <v>1</v>
       </c>
       <c r="I93" s="1" t="s">
@@ -7316,8 +7603,11 @@
       <c r="W93" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -7340,7 +7630,7 @@
         <v>6</v>
       </c>
       <c r="H94" s="1">
-        <f t="shared" si="1"/>
+        <f>G94^2</f>
         <v>36</v>
       </c>
       <c r="I94" s="1" t="s">
@@ -7388,8 +7678,11 @@
       <c r="W94" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -7412,7 +7705,7 @@
         <v>2</v>
       </c>
       <c r="H95" s="1">
-        <f t="shared" si="1"/>
+        <f>G95^2</f>
         <v>4</v>
       </c>
       <c r="I95" s="1" t="s">
@@ -7460,8 +7753,11 @@
       <c r="W95" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -7484,7 +7780,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="1">
-        <f t="shared" si="1"/>
+        <f>G96^2</f>
         <v>1</v>
       </c>
       <c r="I96" s="1" t="s">
@@ -7532,8 +7828,11 @@
       <c r="W96" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -7556,7 +7855,7 @@
         <v>3</v>
       </c>
       <c r="H97" s="1">
-        <f t="shared" si="1"/>
+        <f>G97^2</f>
         <v>9</v>
       </c>
       <c r="I97" s="1" t="s">
@@ -7604,8 +7903,11 @@
       <c r="W97" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -7628,7 +7930,7 @@
         <v>5</v>
       </c>
       <c r="H98" s="1">
-        <f t="shared" si="1"/>
+        <f>G98^2</f>
         <v>25</v>
       </c>
       <c r="I98" s="1" t="s">
@@ -7676,8 +7978,11 @@
       <c r="W98" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -7700,7 +8005,7 @@
         <v>2</v>
       </c>
       <c r="H99" s="1">
-        <f t="shared" si="1"/>
+        <f>G99^2</f>
         <v>4</v>
       </c>
       <c r="I99" s="1" t="s">
@@ -7748,8 +8053,11 @@
       <c r="W99" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -7772,7 +8080,7 @@
         <v>3</v>
       </c>
       <c r="H100" s="1">
-        <f t="shared" si="1"/>
+        <f>G100^2</f>
         <v>9</v>
       </c>
       <c r="I100" s="1" t="s">
@@ -7820,8 +8128,11 @@
       <c r="W100" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -7844,7 +8155,7 @@
         <v>2</v>
       </c>
       <c r="H101" s="1">
-        <f t="shared" si="1"/>
+        <f>G101^2</f>
         <v>4</v>
       </c>
       <c r="I101" s="1" t="s">
@@ -7892,8 +8203,11 @@
       <c r="W101" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -7916,7 +8230,7 @@
         <v>5</v>
       </c>
       <c r="H102" s="1">
-        <f t="shared" si="1"/>
+        <f>G102^2</f>
         <v>25</v>
       </c>
       <c r="I102" s="1" t="s">
@@ -7964,8 +8278,11 @@
       <c r="W102" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -7988,7 +8305,7 @@
         <v>4</v>
       </c>
       <c r="H103" s="1">
-        <f t="shared" si="1"/>
+        <f>G103^2</f>
         <v>16</v>
       </c>
       <c r="I103" s="1" t="s">
@@ -8036,8 +8353,11 @@
       <c r="W103" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -8060,7 +8380,7 @@
         <v>6</v>
       </c>
       <c r="H104" s="1">
-        <f t="shared" si="1"/>
+        <f>G104^2</f>
         <v>36</v>
       </c>
       <c r="I104" s="1" t="s">
@@ -8108,8 +8428,11 @@
       <c r="W104" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -8132,7 +8455,7 @@
         <v>4</v>
       </c>
       <c r="H105" s="1">
-        <f t="shared" si="1"/>
+        <f>G105^2</f>
         <v>16</v>
       </c>
       <c r="I105" s="1" t="s">
@@ -8180,8 +8503,11 @@
       <c r="W105" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X105" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -8204,7 +8530,7 @@
         <v>3</v>
       </c>
       <c r="H106" s="1">
-        <f t="shared" si="1"/>
+        <f>G106^2</f>
         <v>9</v>
       </c>
       <c r="I106" s="1" t="s">
@@ -8252,8 +8578,11 @@
       <c r="W106" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X106" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -8276,7 +8605,7 @@
         <v>6</v>
       </c>
       <c r="H107" s="1">
-        <f t="shared" si="1"/>
+        <f>G107^2</f>
         <v>36</v>
       </c>
       <c r="I107" s="1" t="s">
@@ -8324,8 +8653,11 @@
       <c r="W107" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X107" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -8348,7 +8680,7 @@
         <v>5</v>
       </c>
       <c r="H108" s="1">
-        <f t="shared" si="1"/>
+        <f>G108^2</f>
         <v>25</v>
       </c>
       <c r="I108" s="1" t="s">
@@ -8396,8 +8728,11 @@
       <c r="W108" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X108" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -8420,7 +8755,7 @@
         <v>3</v>
       </c>
       <c r="H109" s="1">
-        <f t="shared" si="1"/>
+        <f>G109^2</f>
         <v>9</v>
       </c>
       <c r="I109" s="1" t="s">
@@ -8468,8 +8803,11 @@
       <c r="W109" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X109" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -8492,7 +8830,7 @@
         <v>2</v>
       </c>
       <c r="H110" s="1">
-        <f t="shared" si="1"/>
+        <f>G110^2</f>
         <v>4</v>
       </c>
       <c r="I110" s="1" t="s">
@@ -8540,8 +8878,11 @@
       <c r="W110" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -8564,7 +8905,7 @@
         <v>3</v>
       </c>
       <c r="H111" s="1">
-        <f t="shared" si="1"/>
+        <f>G111^2</f>
         <v>9</v>
       </c>
       <c r="I111" s="1" t="s">
@@ -8612,8 +8953,11 @@
       <c r="W111" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X111" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -8636,7 +8980,7 @@
         <v>4</v>
       </c>
       <c r="H112" s="1">
-        <f t="shared" si="1"/>
+        <f>G112^2</f>
         <v>16</v>
       </c>
       <c r="I112" s="1" t="s">
@@ -8684,8 +9028,11 @@
       <c r="W112" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X112" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -8708,7 +9055,7 @@
         <v>3</v>
       </c>
       <c r="H113" s="1">
-        <f t="shared" si="1"/>
+        <f>G113^2</f>
         <v>9</v>
       </c>
       <c r="I113" s="1" t="s">
@@ -8756,8 +9103,11 @@
       <c r="W113" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X113" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -8780,7 +9130,7 @@
         <v>6</v>
       </c>
       <c r="H114" s="1">
-        <f t="shared" si="1"/>
+        <f>G114^2</f>
         <v>36</v>
       </c>
       <c r="I114" s="1" t="s">
@@ -8828,8 +9178,11 @@
       <c r="W114" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X114" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -8852,7 +9205,7 @@
         <v>6</v>
       </c>
       <c r="H115" s="1">
-        <f t="shared" si="1"/>
+        <f>G115^2</f>
         <v>36</v>
       </c>
       <c r="I115" s="1" t="s">
@@ -8900,8 +9253,11 @@
       <c r="W115" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X115" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -8924,7 +9280,7 @@
         <v>3</v>
       </c>
       <c r="H116" s="1">
-        <f t="shared" si="1"/>
+        <f>G116^2</f>
         <v>9</v>
       </c>
       <c r="I116" s="1" t="s">
@@ -8972,8 +9328,11 @@
       <c r="W116" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X116" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -8996,7 +9355,7 @@
         <v>3</v>
       </c>
       <c r="H117" s="1">
-        <f t="shared" si="1"/>
+        <f>G117^2</f>
         <v>9</v>
       </c>
       <c r="I117" s="1" t="s">
@@ -9044,8 +9403,11 @@
       <c r="W117" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X117" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -9068,7 +9430,7 @@
         <v>4</v>
       </c>
       <c r="H118" s="1">
-        <f t="shared" si="1"/>
+        <f>G118^2</f>
         <v>16</v>
       </c>
       <c r="I118" s="1" t="s">
@@ -9116,8 +9478,11 @@
       <c r="W118" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X118" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -9140,7 +9505,7 @@
         <v>4</v>
       </c>
       <c r="H119" s="1">
-        <f t="shared" si="1"/>
+        <f>G119^2</f>
         <v>16</v>
       </c>
       <c r="I119" s="1" t="s">
@@ -9188,8 +9553,11 @@
       <c r="W119" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X119" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -9212,7 +9580,7 @@
         <v>3</v>
       </c>
       <c r="H120" s="1">
-        <f t="shared" si="1"/>
+        <f>G120^2</f>
         <v>9</v>
       </c>
       <c r="I120" s="1" t="s">
@@ -9260,8 +9628,11 @@
       <c r="W120" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X120" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -9284,7 +9655,7 @@
         <v>4</v>
       </c>
       <c r="H121" s="1">
-        <f t="shared" si="1"/>
+        <f>G121^2</f>
         <v>16</v>
       </c>
       <c r="I121" s="1" t="s">
@@ -9332,8 +9703,11 @@
       <c r="W121" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X121" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -9356,7 +9730,7 @@
         <v>2</v>
       </c>
       <c r="H122" s="1">
-        <f t="shared" si="1"/>
+        <f>G122^2</f>
         <v>4</v>
       </c>
       <c r="I122" s="1" t="s">
@@ -9404,8 +9778,11 @@
       <c r="W122" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X122" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -9428,7 +9805,7 @@
         <v>6</v>
       </c>
       <c r="H123" s="1">
-        <f t="shared" si="1"/>
+        <f>G123^2</f>
         <v>36</v>
       </c>
       <c r="I123" s="1" t="s">
@@ -9476,8 +9853,11 @@
       <c r="W123" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X123" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -9500,7 +9880,7 @@
         <v>4</v>
       </c>
       <c r="H124" s="1">
-        <f t="shared" si="1"/>
+        <f>G124^2</f>
         <v>16</v>
       </c>
       <c r="I124" s="1" t="s">
@@ -9548,8 +9928,11 @@
       <c r="W124" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X124" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -9572,7 +9955,7 @@
         <v>4</v>
       </c>
       <c r="H125" s="1">
-        <f t="shared" si="1"/>
+        <f>G125^2</f>
         <v>16</v>
       </c>
       <c r="I125" s="1" t="s">
@@ -9620,8 +10003,11 @@
       <c r="W125" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X125" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -9644,7 +10030,7 @@
         <v>4</v>
       </c>
       <c r="H126" s="1">
-        <f t="shared" si="1"/>
+        <f>G126^2</f>
         <v>16</v>
       </c>
       <c r="I126" s="1" t="s">
@@ -9692,8 +10078,11 @@
       <c r="W126" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X126" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -9716,7 +10105,7 @@
         <v>3</v>
       </c>
       <c r="H127" s="1">
-        <f t="shared" si="1"/>
+        <f>G127^2</f>
         <v>9</v>
       </c>
       <c r="I127" s="1" t="s">
@@ -9764,8 +10153,11 @@
       <c r="W127" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X127" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -9788,7 +10180,7 @@
         <v>3</v>
       </c>
       <c r="H128" s="1">
-        <f t="shared" si="1"/>
+        <f>G128^2</f>
         <v>9</v>
       </c>
       <c r="I128" s="1" t="s">
@@ -9836,8 +10228,11 @@
       <c r="W128" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X128" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -9860,7 +10255,7 @@
         <v>5</v>
       </c>
       <c r="H129" s="1">
-        <f t="shared" si="1"/>
+        <f>G129^2</f>
         <v>25</v>
       </c>
       <c r="I129" s="1" t="s">
@@ -9908,8 +10303,11 @@
       <c r="W129" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X129" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -9932,7 +10330,7 @@
         <v>4</v>
       </c>
       <c r="H130" s="1">
-        <f t="shared" ref="H130:H193" si="2">G130^2</f>
+        <f>G130^2</f>
         <v>16</v>
       </c>
       <c r="I130" s="1" t="s">
@@ -9980,8 +10378,11 @@
       <c r="W130" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X130" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -10004,7 +10405,7 @@
         <v>4</v>
       </c>
       <c r="H131" s="1">
-        <f t="shared" si="2"/>
+        <f>G131^2</f>
         <v>16</v>
       </c>
       <c r="I131" s="1" t="s">
@@ -10052,8 +10453,11 @@
       <c r="W131" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -10076,7 +10480,7 @@
         <v>3</v>
       </c>
       <c r="H132" s="1">
-        <f t="shared" si="2"/>
+        <f>G132^2</f>
         <v>9</v>
       </c>
       <c r="I132" s="1" t="s">
@@ -10124,8 +10528,11 @@
       <c r="W132" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X132" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -10148,7 +10555,7 @@
         <v>5</v>
       </c>
       <c r="H133" s="1">
-        <f t="shared" si="2"/>
+        <f>G133^2</f>
         <v>25</v>
       </c>
       <c r="I133" s="1" t="s">
@@ -10196,8 +10603,11 @@
       <c r="W133" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X133" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -10220,7 +10630,7 @@
         <v>2</v>
       </c>
       <c r="H134" s="1">
-        <f t="shared" si="2"/>
+        <f>G134^2</f>
         <v>4</v>
       </c>
       <c r="I134" s="1" t="s">
@@ -10268,8 +10678,11 @@
       <c r="W134" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X134" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -10292,7 +10705,7 @@
         <v>3</v>
       </c>
       <c r="H135" s="1">
-        <f t="shared" si="2"/>
+        <f>G135^2</f>
         <v>9</v>
       </c>
       <c r="I135" s="1" t="s">
@@ -10340,8 +10753,11 @@
       <c r="W135" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X135" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -10364,7 +10780,7 @@
         <v>3</v>
       </c>
       <c r="H136" s="1">
-        <f t="shared" si="2"/>
+        <f>G136^2</f>
         <v>9</v>
       </c>
       <c r="I136" s="1" t="s">
@@ -10412,8 +10828,11 @@
       <c r="W136" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X136" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -10436,7 +10855,7 @@
         <v>3</v>
       </c>
       <c r="H137" s="1">
-        <f t="shared" si="2"/>
+        <f>G137^2</f>
         <v>9</v>
       </c>
       <c r="I137" s="1" t="s">
@@ -10484,8 +10903,11 @@
       <c r="W137" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X137" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -10508,7 +10930,7 @@
         <v>5</v>
       </c>
       <c r="H138" s="1">
-        <f t="shared" si="2"/>
+        <f>G138^2</f>
         <v>25</v>
       </c>
       <c r="I138" s="1" t="s">
@@ -10556,8 +10978,11 @@
       <c r="W138" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X138" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -10580,7 +11005,7 @@
         <v>4</v>
       </c>
       <c r="H139" s="1">
-        <f t="shared" si="2"/>
+        <f>G139^2</f>
         <v>16</v>
       </c>
       <c r="I139" s="1" t="s">
@@ -10628,8 +11053,11 @@
       <c r="W139" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X139" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -10652,7 +11080,7 @@
         <v>5</v>
       </c>
       <c r="H140" s="1">
-        <f t="shared" si="2"/>
+        <f>G140^2</f>
         <v>25</v>
       </c>
       <c r="I140" s="1" t="s">
@@ -10700,8 +11128,11 @@
       <c r="W140" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X140" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -10724,7 +11155,7 @@
         <v>6</v>
       </c>
       <c r="H141" s="1">
-        <f t="shared" si="2"/>
+        <f>G141^2</f>
         <v>36</v>
       </c>
       <c r="I141" s="1" t="s">
@@ -10772,8 +11203,11 @@
       <c r="W141" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X141" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -10796,7 +11230,7 @@
         <v>4</v>
       </c>
       <c r="H142" s="1">
-        <f t="shared" si="2"/>
+        <f>G142^2</f>
         <v>16</v>
       </c>
       <c r="I142" s="1" t="s">
@@ -10844,8 +11278,11 @@
       <c r="W142" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X142" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -10868,7 +11305,7 @@
         <v>4</v>
       </c>
       <c r="H143" s="1">
-        <f t="shared" si="2"/>
+        <f>G143^2</f>
         <v>16</v>
       </c>
       <c r="I143" s="1" t="s">
@@ -10916,8 +11353,11 @@
       <c r="W143" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X143" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -10940,7 +11380,7 @@
         <v>4</v>
       </c>
       <c r="H144" s="1">
-        <f t="shared" si="2"/>
+        <f>G144^2</f>
         <v>16</v>
       </c>
       <c r="I144" s="1" t="s">
@@ -10988,8 +11428,11 @@
       <c r="W144" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X144" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -11012,7 +11455,7 @@
         <v>4</v>
       </c>
       <c r="H145" s="1">
-        <f t="shared" si="2"/>
+        <f>G145^2</f>
         <v>16</v>
       </c>
       <c r="I145" s="1" t="s">
@@ -11060,8 +11503,11 @@
       <c r="W145" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X145" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -11084,7 +11530,7 @@
         <v>6</v>
       </c>
       <c r="H146" s="1">
-        <f t="shared" si="2"/>
+        <f>G146^2</f>
         <v>36</v>
       </c>
       <c r="I146" s="1" t="s">
@@ -11132,8 +11578,11 @@
       <c r="W146" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X146" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -11156,7 +11605,7 @@
         <v>3</v>
       </c>
       <c r="H147" s="1">
-        <f t="shared" si="2"/>
+        <f>G147^2</f>
         <v>9</v>
       </c>
       <c r="I147" s="1" t="s">
@@ -11204,8 +11653,11 @@
       <c r="W147" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X147" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -11228,7 +11680,7 @@
         <v>6</v>
       </c>
       <c r="H148" s="1">
-        <f t="shared" si="2"/>
+        <f>G148^2</f>
         <v>36</v>
       </c>
       <c r="I148" s="1" t="s">
@@ -11276,8 +11728,11 @@
       <c r="W148" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X148" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -11300,7 +11755,7 @@
         <v>4</v>
       </c>
       <c r="H149" s="1">
-        <f t="shared" si="2"/>
+        <f>G149^2</f>
         <v>16</v>
       </c>
       <c r="I149" s="1" t="s">
@@ -11348,8 +11803,11 @@
       <c r="W149" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X149" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -11372,7 +11830,7 @@
         <v>2</v>
       </c>
       <c r="H150" s="1">
-        <f t="shared" si="2"/>
+        <f>G150^2</f>
         <v>4</v>
       </c>
       <c r="I150" s="1" t="s">
@@ -11420,8 +11878,11 @@
       <c r="W150" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X150" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -11444,7 +11905,7 @@
         <v>2</v>
       </c>
       <c r="H151" s="1">
-        <f t="shared" si="2"/>
+        <f>G151^2</f>
         <v>4</v>
       </c>
       <c r="I151" s="1" t="s">
@@ -11492,8 +11953,11 @@
       <c r="W151" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X151" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -11516,7 +11980,7 @@
         <v>2</v>
       </c>
       <c r="H152" s="1">
-        <f t="shared" si="2"/>
+        <f>G152^2</f>
         <v>4</v>
       </c>
       <c r="I152" s="1" t="s">
@@ -11564,8 +12028,11 @@
       <c r="W152" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X152" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -11588,7 +12055,7 @@
         <v>3</v>
       </c>
       <c r="H153" s="1">
-        <f t="shared" si="2"/>
+        <f>G153^2</f>
         <v>9</v>
       </c>
       <c r="I153" s="1" t="s">
@@ -11636,8 +12103,11 @@
       <c r="W153" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X153" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -11660,7 +12130,7 @@
         <v>6</v>
       </c>
       <c r="H154" s="1">
-        <f t="shared" si="2"/>
+        <f>G154^2</f>
         <v>36</v>
       </c>
       <c r="I154" s="1" t="s">
@@ -11708,8 +12178,11 @@
       <c r="W154" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X154" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -11732,7 +12205,7 @@
         <v>3</v>
       </c>
       <c r="H155" s="1">
-        <f t="shared" si="2"/>
+        <f>G155^2</f>
         <v>9</v>
       </c>
       <c r="I155" s="1" t="s">
@@ -11780,8 +12253,11 @@
       <c r="W155" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X155" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -11804,7 +12280,7 @@
         <v>4</v>
       </c>
       <c r="H156" s="1">
-        <f t="shared" si="2"/>
+        <f>G156^2</f>
         <v>16</v>
       </c>
       <c r="I156" s="1" t="s">
@@ -11852,8 +12328,11 @@
       <c r="W156" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X156" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -11876,7 +12355,7 @@
         <v>2</v>
       </c>
       <c r="H157" s="1">
-        <f t="shared" si="2"/>
+        <f>G157^2</f>
         <v>4</v>
       </c>
       <c r="I157" s="1" t="s">
@@ -11924,8 +12403,11 @@
       <c r="W157" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X157" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -11948,7 +12430,7 @@
         <v>5</v>
       </c>
       <c r="H158" s="1">
-        <f t="shared" si="2"/>
+        <f>G158^2</f>
         <v>25</v>
       </c>
       <c r="I158" s="1" t="s">
@@ -11996,8 +12478,11 @@
       <c r="W158" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X158" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -12020,7 +12505,7 @@
         <v>2</v>
       </c>
       <c r="H159" s="1">
-        <f t="shared" si="2"/>
+        <f>G159^2</f>
         <v>4</v>
       </c>
       <c r="I159" s="1" t="s">
@@ -12068,8 +12553,11 @@
       <c r="W159" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X159" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -12092,7 +12580,7 @@
         <v>4</v>
       </c>
       <c r="H160" s="1">
-        <f t="shared" si="2"/>
+        <f>G160^2</f>
         <v>16</v>
       </c>
       <c r="I160" s="1" t="s">
@@ -12140,8 +12628,11 @@
       <c r="W160" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X160" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -12164,7 +12655,7 @@
         <v>4</v>
       </c>
       <c r="H161" s="1">
-        <f t="shared" si="2"/>
+        <f>G161^2</f>
         <v>16</v>
       </c>
       <c r="I161" s="1" t="s">
@@ -12212,8 +12703,11 @@
       <c r="W161" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X161" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -12236,7 +12730,7 @@
         <v>6</v>
       </c>
       <c r="H162" s="1">
-        <f t="shared" si="2"/>
+        <f>G162^2</f>
         <v>36</v>
       </c>
       <c r="I162" s="1" t="s">
@@ -12284,8 +12778,11 @@
       <c r="W162" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X162" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -12308,7 +12805,7 @@
         <v>4</v>
       </c>
       <c r="H163" s="1">
-        <f t="shared" si="2"/>
+        <f>G163^2</f>
         <v>16</v>
       </c>
       <c r="I163" s="1" t="s">
@@ -12356,8 +12853,11 @@
       <c r="W163" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X163" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -12380,7 +12880,7 @@
         <v>3</v>
       </c>
       <c r="H164" s="1">
-        <f t="shared" si="2"/>
+        <f>G164^2</f>
         <v>9</v>
       </c>
       <c r="I164" s="1" t="s">
@@ -12428,8 +12928,11 @@
       <c r="W164" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X164" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -12452,7 +12955,7 @@
         <v>6</v>
       </c>
       <c r="H165" s="1">
-        <f t="shared" si="2"/>
+        <f>G165^2</f>
         <v>36</v>
       </c>
       <c r="I165" s="1" t="s">
@@ -12500,8 +13003,11 @@
       <c r="W165" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X165" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -12524,7 +13030,7 @@
         <v>3</v>
       </c>
       <c r="H166" s="1">
-        <f t="shared" si="2"/>
+        <f>G166^2</f>
         <v>9</v>
       </c>
       <c r="I166" s="1" t="s">
@@ -12572,8 +13078,11 @@
       <c r="W166" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X166" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -12596,7 +13105,7 @@
         <v>4</v>
       </c>
       <c r="H167" s="1">
-        <f t="shared" si="2"/>
+        <f>G167^2</f>
         <v>16</v>
       </c>
       <c r="I167" s="1" t="s">
@@ -12644,8 +13153,11 @@
       <c r="W167" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X167" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -12668,7 +13180,7 @@
         <v>5</v>
       </c>
       <c r="H168" s="1">
-        <f t="shared" si="2"/>
+        <f>G168^2</f>
         <v>25</v>
       </c>
       <c r="I168" s="1" t="s">
@@ -12716,8 +13228,11 @@
       <c r="W168" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X168" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -12740,7 +13255,7 @@
         <v>3</v>
       </c>
       <c r="H169" s="1">
-        <f t="shared" si="2"/>
+        <f>G169^2</f>
         <v>9</v>
       </c>
       <c r="I169" s="1" t="s">
@@ -12788,8 +13303,11 @@
       <c r="W169" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X169" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -12812,7 +13330,7 @@
         <v>2</v>
       </c>
       <c r="H170" s="1">
-        <f t="shared" si="2"/>
+        <f>G170^2</f>
         <v>4</v>
       </c>
       <c r="I170" s="1" t="s">
@@ -12860,8 +13378,11 @@
       <c r="W170" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X170" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -12884,7 +13405,7 @@
         <v>4</v>
       </c>
       <c r="H171" s="1">
-        <f t="shared" si="2"/>
+        <f>G171^2</f>
         <v>16</v>
       </c>
       <c r="I171" s="1" t="s">
@@ -12932,8 +13453,11 @@
       <c r="W171" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X171" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -12956,7 +13480,7 @@
         <v>4</v>
       </c>
       <c r="H172" s="1">
-        <f t="shared" si="2"/>
+        <f>G172^2</f>
         <v>16</v>
       </c>
       <c r="I172" s="1" t="s">
@@ -13004,8 +13528,11 @@
       <c r="W172" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X172" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -13028,7 +13555,7 @@
         <v>4</v>
       </c>
       <c r="H173" s="1">
-        <f t="shared" si="2"/>
+        <f>G173^2</f>
         <v>16</v>
       </c>
       <c r="I173" s="1" t="s">
@@ -13076,8 +13603,11 @@
       <c r="W173" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X173" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -13100,7 +13630,7 @@
         <v>6</v>
       </c>
       <c r="H174" s="1">
-        <f t="shared" si="2"/>
+        <f>G174^2</f>
         <v>36</v>
       </c>
       <c r="I174" s="1" t="s">
@@ -13148,8 +13678,11 @@
       <c r="W174" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X174" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -13172,7 +13705,7 @@
         <v>4</v>
       </c>
       <c r="H175" s="1">
-        <f t="shared" si="2"/>
+        <f>G175^2</f>
         <v>16</v>
       </c>
       <c r="I175" s="1" t="s">
@@ -13220,8 +13753,11 @@
       <c r="W175" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X175" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -13244,7 +13780,7 @@
         <v>2</v>
       </c>
       <c r="H176" s="1">
-        <f t="shared" si="2"/>
+        <f>G176^2</f>
         <v>4</v>
       </c>
       <c r="I176" s="1" t="s">
@@ -13292,8 +13828,11 @@
       <c r="W176" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X176" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -13316,7 +13855,7 @@
         <v>3</v>
       </c>
       <c r="H177" s="1">
-        <f t="shared" si="2"/>
+        <f>G177^2</f>
         <v>9</v>
       </c>
       <c r="I177" s="1" t="s">
@@ -13364,8 +13903,11 @@
       <c r="W177" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X177" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -13388,7 +13930,7 @@
         <v>6</v>
       </c>
       <c r="H178" s="1">
-        <f t="shared" si="2"/>
+        <f>G178^2</f>
         <v>36</v>
       </c>
       <c r="I178" s="1" t="s">
@@ -13436,8 +13978,11 @@
       <c r="W178" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X178" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -13460,7 +14005,7 @@
         <v>3</v>
       </c>
       <c r="H179" s="1">
-        <f t="shared" si="2"/>
+        <f>G179^2</f>
         <v>9</v>
       </c>
       <c r="I179" s="1" t="s">
@@ -13508,8 +14053,11 @@
       <c r="W179" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X179" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -13532,7 +14080,7 @@
         <v>4</v>
       </c>
       <c r="H180" s="1">
-        <f t="shared" si="2"/>
+        <f>G180^2</f>
         <v>16</v>
       </c>
       <c r="I180" s="1" t="s">
@@ -13580,8 +14128,11 @@
       <c r="W180" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X180" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -13604,7 +14155,7 @@
         <v>4</v>
       </c>
       <c r="H181" s="1">
-        <f t="shared" si="2"/>
+        <f>G181^2</f>
         <v>16</v>
       </c>
       <c r="I181" s="1" t="s">
@@ -13652,8 +14203,11 @@
       <c r="W181" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X181" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -13676,7 +14230,7 @@
         <v>6</v>
       </c>
       <c r="H182" s="1">
-        <f t="shared" si="2"/>
+        <f>G182^2</f>
         <v>36</v>
       </c>
       <c r="I182" s="1" t="s">
@@ -13724,8 +14278,11 @@
       <c r="W182" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X182" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -13748,7 +14305,7 @@
         <v>4</v>
       </c>
       <c r="H183" s="1">
-        <f t="shared" si="2"/>
+        <f>G183^2</f>
         <v>16</v>
       </c>
       <c r="I183" s="1" t="s">
@@ -13796,8 +14353,11 @@
       <c r="W183" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X183" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -13820,7 +14380,7 @@
         <v>3</v>
       </c>
       <c r="H184" s="1">
-        <f t="shared" si="2"/>
+        <f>G184^2</f>
         <v>9</v>
       </c>
       <c r="I184" s="1" t="s">
@@ -13868,8 +14428,11 @@
       <c r="W184" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X184" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -13892,7 +14455,7 @@
         <v>2</v>
       </c>
       <c r="H185" s="1">
-        <f t="shared" si="2"/>
+        <f>G185^2</f>
         <v>4</v>
       </c>
       <c r="I185" s="1" t="s">
@@ -13940,8 +14503,11 @@
       <c r="W185" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X185" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -13964,7 +14530,7 @@
         <v>5</v>
       </c>
       <c r="H186" s="1">
-        <f t="shared" si="2"/>
+        <f>G186^2</f>
         <v>25</v>
       </c>
       <c r="I186" s="1" t="s">
@@ -14012,8 +14578,11 @@
       <c r="W186" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X186" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -14036,7 +14605,7 @@
         <v>2</v>
       </c>
       <c r="H187" s="1">
-        <f t="shared" si="2"/>
+        <f>G187^2</f>
         <v>4</v>
       </c>
       <c r="I187" s="1" t="s">
@@ -14084,8 +14653,11 @@
       <c r="W187" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X187" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -14108,7 +14680,7 @@
         <v>5</v>
       </c>
       <c r="H188" s="1">
-        <f t="shared" si="2"/>
+        <f>G188^2</f>
         <v>25</v>
       </c>
       <c r="I188" s="1" t="s">
@@ -14156,8 +14728,11 @@
       <c r="W188" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X188" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -14180,7 +14755,7 @@
         <v>4</v>
       </c>
       <c r="H189" s="1">
-        <f t="shared" si="2"/>
+        <f>G189^2</f>
         <v>16</v>
       </c>
       <c r="I189" s="1" t="s">
@@ -14228,8 +14803,11 @@
       <c r="W189" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X189" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -14252,7 +14830,7 @@
         <v>4</v>
       </c>
       <c r="H190" s="1">
-        <f t="shared" si="2"/>
+        <f>G190^2</f>
         <v>16</v>
       </c>
       <c r="I190" s="1" t="s">
@@ -14300,8 +14878,11 @@
       <c r="W190" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X190" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -14324,7 +14905,7 @@
         <v>1</v>
       </c>
       <c r="H191" s="1">
-        <f t="shared" si="2"/>
+        <f>G191^2</f>
         <v>1</v>
       </c>
       <c r="I191" s="1" t="s">
@@ -14372,8 +14953,11 @@
       <c r="W191" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X191" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -14396,7 +14980,7 @@
         <v>5</v>
       </c>
       <c r="H192" s="1">
-        <f t="shared" si="2"/>
+        <f>G192^2</f>
         <v>25</v>
       </c>
       <c r="I192" s="1" t="s">
@@ -14444,8 +15028,11 @@
       <c r="W192" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X192" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -14468,7 +15055,7 @@
         <v>3</v>
       </c>
       <c r="H193" s="1">
-        <f t="shared" si="2"/>
+        <f>G193^2</f>
         <v>9</v>
       </c>
       <c r="I193" s="1" t="s">
@@ -14516,8 +15103,11 @@
       <c r="W193" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X193" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -14540,7 +15130,7 @@
         <v>2</v>
       </c>
       <c r="H194" s="1">
-        <f t="shared" ref="H194:H257" si="3">G194^2</f>
+        <f>G194^2</f>
         <v>4</v>
       </c>
       <c r="I194" s="1" t="s">
@@ -14588,8 +15178,11 @@
       <c r="W194" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X194" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -14612,7 +15205,7 @@
         <v>3</v>
       </c>
       <c r="H195" s="1">
-        <f t="shared" si="3"/>
+        <f>G195^2</f>
         <v>9</v>
       </c>
       <c r="I195" s="1" t="s">
@@ -14660,8 +15253,11 @@
       <c r="W195" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X195" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -14684,7 +15280,7 @@
         <v>2</v>
       </c>
       <c r="H196" s="1">
-        <f t="shared" si="3"/>
+        <f>G196^2</f>
         <v>4</v>
       </c>
       <c r="I196" s="1" t="s">
@@ -14732,8 +15328,11 @@
       <c r="W196" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X196" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -14756,7 +15355,7 @@
         <v>2</v>
       </c>
       <c r="H197" s="1">
-        <f t="shared" si="3"/>
+        <f>G197^2</f>
         <v>4</v>
       </c>
       <c r="I197" s="1" t="s">
@@ -14804,8 +15403,11 @@
       <c r="W197" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X197" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -14828,7 +15430,7 @@
         <v>2</v>
       </c>
       <c r="H198" s="1">
-        <f t="shared" si="3"/>
+        <f>G198^2</f>
         <v>4</v>
       </c>
       <c r="I198" s="1" t="s">
@@ -14876,8 +15478,11 @@
       <c r="W198" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X198" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -14900,7 +15505,7 @@
         <v>2</v>
       </c>
       <c r="H199" s="1">
-        <f t="shared" si="3"/>
+        <f>G199^2</f>
         <v>4</v>
       </c>
       <c r="I199" s="1" t="s">
@@ -14948,8 +15553,11 @@
       <c r="W199" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X199" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -14972,7 +15580,7 @@
         <v>3</v>
       </c>
       <c r="H200" s="1">
-        <f t="shared" si="3"/>
+        <f>G200^2</f>
         <v>9</v>
       </c>
       <c r="I200" s="1" t="s">
@@ -15020,8 +15628,11 @@
       <c r="W200" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X200" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -15044,7 +15655,7 @@
         <v>2</v>
       </c>
       <c r="H201" s="1">
-        <f t="shared" si="3"/>
+        <f>G201^2</f>
         <v>4</v>
       </c>
       <c r="I201" s="1" t="s">
@@ -15092,8 +15703,11 @@
       <c r="W201" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X201" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -15116,7 +15730,7 @@
         <v>3</v>
       </c>
       <c r="H202" s="1">
-        <f t="shared" si="3"/>
+        <f>G202^2</f>
         <v>9</v>
       </c>
       <c r="I202" s="1" t="s">
@@ -15164,8 +15778,11 @@
       <c r="W202" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X202" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -15188,7 +15805,7 @@
         <v>4</v>
       </c>
       <c r="H203" s="1">
-        <f t="shared" si="3"/>
+        <f>G203^2</f>
         <v>16</v>
       </c>
       <c r="I203" s="1" t="s">
@@ -15236,8 +15853,11 @@
       <c r="W203" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X203" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -15260,7 +15880,7 @@
         <v>4</v>
       </c>
       <c r="H204" s="1">
-        <f t="shared" si="3"/>
+        <f>G204^2</f>
         <v>16</v>
       </c>
       <c r="I204" s="1" t="s">
@@ -15308,8 +15928,11 @@
       <c r="W204" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X204" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -15332,7 +15955,7 @@
         <v>2</v>
       </c>
       <c r="H205" s="1">
-        <f t="shared" si="3"/>
+        <f>G205^2</f>
         <v>4</v>
       </c>
       <c r="I205" s="1" t="s">
@@ -15380,8 +16003,11 @@
       <c r="W205" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X205" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -15404,7 +16030,7 @@
         <v>3</v>
       </c>
       <c r="H206" s="1">
-        <f t="shared" si="3"/>
+        <f>G206^2</f>
         <v>9</v>
       </c>
       <c r="I206" s="1" t="s">
@@ -15452,8 +16078,11 @@
       <c r="W206" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X206" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -15476,7 +16105,7 @@
         <v>6</v>
       </c>
       <c r="H207" s="1">
-        <f t="shared" si="3"/>
+        <f>G207^2</f>
         <v>36</v>
       </c>
       <c r="I207" s="1" t="s">
@@ -15524,8 +16153,11 @@
       <c r="W207" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X207" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -15548,7 +16180,7 @@
         <v>5</v>
       </c>
       <c r="H208" s="1">
-        <f t="shared" si="3"/>
+        <f>G208^2</f>
         <v>25</v>
       </c>
       <c r="I208" s="1" t="s">
@@ -15596,8 +16228,11 @@
       <c r="W208" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X208" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -15620,7 +16255,7 @@
         <v>2</v>
       </c>
       <c r="H209" s="1">
-        <f t="shared" si="3"/>
+        <f>G209^2</f>
         <v>4</v>
       </c>
       <c r="I209" s="1" t="s">
@@ -15668,8 +16303,11 @@
       <c r="W209" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X209" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -15692,7 +16330,7 @@
         <v>2</v>
       </c>
       <c r="H210" s="1">
-        <f t="shared" si="3"/>
+        <f>G210^2</f>
         <v>4</v>
       </c>
       <c r="I210" s="1" t="s">
@@ -15740,8 +16378,11 @@
       <c r="W210" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X210" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -15764,7 +16405,7 @@
         <v>1</v>
       </c>
       <c r="H211" s="1">
-        <f t="shared" si="3"/>
+        <f>G211^2</f>
         <v>1</v>
       </c>
       <c r="I211" s="1" t="s">
@@ -15812,8 +16453,11 @@
       <c r="W211" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X211" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -15836,7 +16480,7 @@
         <v>3</v>
       </c>
       <c r="H212" s="1">
-        <f t="shared" si="3"/>
+        <f>G212^2</f>
         <v>9</v>
       </c>
       <c r="I212" s="1" t="s">
@@ -15884,8 +16528,11 @@
       <c r="W212" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X212" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -15908,7 +16555,7 @@
         <v>3</v>
       </c>
       <c r="H213" s="1">
-        <f t="shared" si="3"/>
+        <f>G213^2</f>
         <v>9</v>
       </c>
       <c r="I213" s="1" t="s">
@@ -15956,8 +16603,11 @@
       <c r="W213" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X213" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -15980,7 +16630,7 @@
         <v>2</v>
       </c>
       <c r="H214" s="1">
-        <f t="shared" si="3"/>
+        <f>G214^2</f>
         <v>4</v>
       </c>
       <c r="I214" s="1" t="s">
@@ -16028,8 +16678,11 @@
       <c r="W214" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X214" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -16052,7 +16705,7 @@
         <v>3</v>
       </c>
       <c r="H215" s="1">
-        <f t="shared" si="3"/>
+        <f>G215^2</f>
         <v>9</v>
       </c>
       <c r="I215" s="1" t="s">
@@ -16100,8 +16753,11 @@
       <c r="W215" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X215" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -16124,7 +16780,7 @@
         <v>4</v>
       </c>
       <c r="H216" s="1">
-        <f t="shared" si="3"/>
+        <f>G216^2</f>
         <v>16</v>
       </c>
       <c r="I216" s="1" t="s">
@@ -16172,8 +16828,11 @@
       <c r="W216" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X216" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -16196,7 +16855,7 @@
         <v>4</v>
       </c>
       <c r="H217" s="1">
-        <f t="shared" si="3"/>
+        <f>G217^2</f>
         <v>16</v>
       </c>
       <c r="I217" s="1" t="s">
@@ -16244,8 +16903,11 @@
       <c r="W217" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X217" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -16268,7 +16930,7 @@
         <v>3</v>
       </c>
       <c r="H218" s="1">
-        <f t="shared" si="3"/>
+        <f>G218^2</f>
         <v>9</v>
       </c>
       <c r="I218" s="1" t="s">
@@ -16316,8 +16978,11 @@
       <c r="W218" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X218" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -16340,7 +17005,7 @@
         <v>2</v>
       </c>
       <c r="H219" s="1">
-        <f t="shared" si="3"/>
+        <f>G219^2</f>
         <v>4</v>
       </c>
       <c r="I219" s="1" t="s">
@@ -16388,8 +17053,11 @@
       <c r="W219" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X219" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -16412,7 +17080,7 @@
         <v>3</v>
       </c>
       <c r="H220" s="1">
-        <f t="shared" si="3"/>
+        <f>G220^2</f>
         <v>9</v>
       </c>
       <c r="I220" s="1" t="s">
@@ -16460,8 +17128,11 @@
       <c r="W220" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X220" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -16484,7 +17155,7 @@
         <v>3</v>
       </c>
       <c r="H221" s="1">
-        <f t="shared" si="3"/>
+        <f>G221^2</f>
         <v>9</v>
       </c>
       <c r="I221" s="1" t="s">
@@ -16532,8 +17203,11 @@
       <c r="W221" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X221" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -16556,7 +17230,7 @@
         <v>4</v>
       </c>
       <c r="H222" s="1">
-        <f t="shared" si="3"/>
+        <f>G222^2</f>
         <v>16</v>
       </c>
       <c r="I222" s="1" t="s">
@@ -16604,8 +17278,11 @@
       <c r="W222" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X222" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -16628,7 +17305,7 @@
         <v>2</v>
       </c>
       <c r="H223" s="1">
-        <f t="shared" si="3"/>
+        <f>G223^2</f>
         <v>4</v>
       </c>
       <c r="I223" s="1" t="s">
@@ -16676,8 +17353,11 @@
       <c r="W223" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X223" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -16700,7 +17380,7 @@
         <v>5</v>
       </c>
       <c r="H224" s="1">
-        <f t="shared" si="3"/>
+        <f>G224^2</f>
         <v>25</v>
       </c>
       <c r="I224" s="1" t="s">
@@ -16748,8 +17428,11 @@
       <c r="W224" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X224" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -16772,7 +17455,7 @@
         <v>4</v>
       </c>
       <c r="H225" s="1">
-        <f t="shared" si="3"/>
+        <f>G225^2</f>
         <v>16</v>
       </c>
       <c r="I225" s="1" t="s">
@@ -16820,8 +17503,11 @@
       <c r="W225" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X225" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -16844,7 +17530,7 @@
         <v>4</v>
       </c>
       <c r="H226" s="1">
-        <f t="shared" si="3"/>
+        <f>G226^2</f>
         <v>16</v>
       </c>
       <c r="I226" s="1" t="s">
@@ -16892,8 +17578,11 @@
       <c r="W226" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X226" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -16916,7 +17605,7 @@
         <v>2</v>
       </c>
       <c r="H227" s="1">
-        <f t="shared" si="3"/>
+        <f>G227^2</f>
         <v>4</v>
       </c>
       <c r="I227" s="1" t="s">
@@ -16964,8 +17653,11 @@
       <c r="W227" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X227" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -16988,7 +17680,7 @@
         <v>4</v>
       </c>
       <c r="H228" s="1">
-        <f t="shared" si="3"/>
+        <f>G228^2</f>
         <v>16</v>
       </c>
       <c r="I228" s="1" t="s">
@@ -17036,8 +17728,11 @@
       <c r="W228" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X228" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -17060,7 +17755,7 @@
         <v>2</v>
       </c>
       <c r="H229" s="1">
-        <f t="shared" si="3"/>
+        <f>G229^2</f>
         <v>4</v>
       </c>
       <c r="I229" s="1" t="s">
@@ -17108,8 +17803,11 @@
       <c r="W229" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X229" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -17132,7 +17830,7 @@
         <v>4</v>
       </c>
       <c r="H230" s="1">
-        <f t="shared" si="3"/>
+        <f>G230^2</f>
         <v>16</v>
       </c>
       <c r="I230" s="1" t="s">
@@ -17180,8 +17878,11 @@
       <c r="W230" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X230" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -17204,7 +17905,7 @@
         <v>4</v>
       </c>
       <c r="H231" s="1">
-        <f t="shared" si="3"/>
+        <f>G231^2</f>
         <v>16</v>
       </c>
       <c r="I231" s="1" t="s">
@@ -17252,8 +17953,11 @@
       <c r="W231" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X231" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -17276,7 +17980,7 @@
         <v>6</v>
       </c>
       <c r="H232" s="1">
-        <f t="shared" si="3"/>
+        <f>G232^2</f>
         <v>36</v>
       </c>
       <c r="I232" s="1" t="s">
@@ -17324,8 +18028,11 @@
       <c r="W232" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X232" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -17348,7 +18055,7 @@
         <v>5</v>
       </c>
       <c r="H233" s="1">
-        <f t="shared" si="3"/>
+        <f>G233^2</f>
         <v>25</v>
       </c>
       <c r="I233" s="1" t="s">
@@ -17396,8 +18103,11 @@
       <c r="W233" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X233" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -17420,7 +18130,7 @@
         <v>3</v>
       </c>
       <c r="H234" s="1">
-        <f t="shared" si="3"/>
+        <f>G234^2</f>
         <v>9</v>
       </c>
       <c r="I234" s="1" t="s">
@@ -17468,8 +18178,11 @@
       <c r="W234" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X234" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -17492,7 +18205,7 @@
         <v>4</v>
       </c>
       <c r="H235" s="1">
-        <f t="shared" si="3"/>
+        <f>G235^2</f>
         <v>16</v>
       </c>
       <c r="I235" s="1" t="s">
@@ -17540,8 +18253,11 @@
       <c r="W235" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X235" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -17564,7 +18280,7 @@
         <v>5</v>
       </c>
       <c r="H236" s="1">
-        <f t="shared" si="3"/>
+        <f>G236^2</f>
         <v>25</v>
       </c>
       <c r="I236" s="1" t="s">
@@ -17612,8 +18328,11 @@
       <c r="W236" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X236" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -17636,7 +18355,7 @@
         <v>5</v>
       </c>
       <c r="H237" s="1">
-        <f t="shared" si="3"/>
+        <f>G237^2</f>
         <v>25</v>
       </c>
       <c r="I237" s="1" t="s">
@@ -17684,8 +18403,11 @@
       <c r="W237" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X237" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -17708,7 +18430,7 @@
         <v>6</v>
       </c>
       <c r="H238" s="1">
-        <f t="shared" si="3"/>
+        <f>G238^2</f>
         <v>36</v>
       </c>
       <c r="I238" s="1" t="s">
@@ -17756,8 +18478,11 @@
       <c r="W238" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X238" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -17780,7 +18505,7 @@
         <v>4</v>
       </c>
       <c r="H239" s="1">
-        <f t="shared" si="3"/>
+        <f>G239^2</f>
         <v>16</v>
       </c>
       <c r="I239" s="1" t="s">
@@ -17828,8 +18553,11 @@
       <c r="W239" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X239" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -17852,7 +18580,7 @@
         <v>4</v>
       </c>
       <c r="H240" s="1">
-        <f t="shared" si="3"/>
+        <f>G240^2</f>
         <v>16</v>
       </c>
       <c r="I240" s="1" t="s">
@@ -17900,8 +18628,11 @@
       <c r="W240" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X240" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -17924,7 +18655,7 @@
         <v>5</v>
       </c>
       <c r="H241" s="1">
-        <f t="shared" si="3"/>
+        <f>G241^2</f>
         <v>25</v>
       </c>
       <c r="I241" s="1" t="s">
@@ -17972,8 +18703,11 @@
       <c r="W241" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X241" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -17996,7 +18730,7 @@
         <v>2</v>
       </c>
       <c r="H242" s="1">
-        <f t="shared" si="3"/>
+        <f>G242^2</f>
         <v>4</v>
       </c>
       <c r="I242" s="1" t="s">
@@ -18044,8 +18778,11 @@
       <c r="W242" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X242" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -18068,7 +18805,7 @@
         <v>6</v>
       </c>
       <c r="H243" s="1">
-        <f t="shared" si="3"/>
+        <f>G243^2</f>
         <v>36</v>
       </c>
       <c r="I243" s="1" t="s">
@@ -18116,8 +18853,11 @@
       <c r="W243" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="244" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X243" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -18140,7 +18880,7 @@
         <v>3</v>
       </c>
       <c r="H244" s="1">
-        <f t="shared" si="3"/>
+        <f>G244^2</f>
         <v>9</v>
       </c>
       <c r="I244" s="1" t="s">
@@ -18188,8 +18928,11 @@
       <c r="W244" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X244" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -18212,7 +18955,7 @@
         <v>5</v>
       </c>
       <c r="H245" s="1">
-        <f t="shared" si="3"/>
+        <f>G245^2</f>
         <v>25</v>
       </c>
       <c r="I245" s="1" t="s">
@@ -18260,8 +19003,11 @@
       <c r="W245" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X245" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -18284,7 +19030,7 @@
         <v>2</v>
       </c>
       <c r="H246" s="1">
-        <f t="shared" si="3"/>
+        <f>G246^2</f>
         <v>4</v>
       </c>
       <c r="I246" s="1" t="s">
@@ -18332,8 +19078,11 @@
       <c r="W246" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X246" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -18356,7 +19105,7 @@
         <v>6</v>
       </c>
       <c r="H247" s="1">
-        <f t="shared" si="3"/>
+        <f>G247^2</f>
         <v>36</v>
       </c>
       <c r="I247" s="1" t="s">
@@ -18404,8 +19153,11 @@
       <c r="W247" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X247" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -18428,7 +19180,7 @@
         <v>5</v>
       </c>
       <c r="H248" s="1">
-        <f t="shared" si="3"/>
+        <f>G248^2</f>
         <v>25</v>
       </c>
       <c r="I248" s="1" t="s">
@@ -18476,8 +19228,11 @@
       <c r="W248" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X248" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -18500,7 +19255,7 @@
         <v>3</v>
       </c>
       <c r="H249" s="1">
-        <f t="shared" si="3"/>
+        <f>G249^2</f>
         <v>9</v>
       </c>
       <c r="I249" s="1" t="s">
@@ -18548,8 +19303,11 @@
       <c r="W249" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X249" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -18572,7 +19330,7 @@
         <v>4</v>
       </c>
       <c r="H250" s="1">
-        <f t="shared" si="3"/>
+        <f>G250^2</f>
         <v>16</v>
       </c>
       <c r="I250" s="1" t="s">
@@ -18620,8 +19378,11 @@
       <c r="W250" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X250" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -18644,7 +19405,7 @@
         <v>5</v>
       </c>
       <c r="H251" s="1">
-        <f t="shared" si="3"/>
+        <f>G251^2</f>
         <v>25</v>
       </c>
       <c r="I251" s="1" t="s">
@@ -18692,8 +19453,11 @@
       <c r="W251" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X251" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -18716,7 +19480,7 @@
         <v>4</v>
       </c>
       <c r="H252" s="1">
-        <f t="shared" si="3"/>
+        <f>G252^2</f>
         <v>16</v>
       </c>
       <c r="I252" s="1" t="s">
@@ -18764,8 +19528,11 @@
       <c r="W252" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X252" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -18788,7 +19555,7 @@
         <v>2</v>
       </c>
       <c r="H253" s="1">
-        <f t="shared" si="3"/>
+        <f>G253^2</f>
         <v>4</v>
       </c>
       <c r="I253" s="1" t="s">
@@ -18836,8 +19603,11 @@
       <c r="W253" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X253" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -18860,7 +19630,7 @@
         <v>3</v>
       </c>
       <c r="H254" s="1">
-        <f t="shared" si="3"/>
+        <f>G254^2</f>
         <v>9</v>
       </c>
       <c r="I254" s="1" t="s">
@@ -18908,8 +19678,11 @@
       <c r="W254" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X254" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -18932,7 +19705,7 @@
         <v>3</v>
       </c>
       <c r="H255" s="1">
-        <f t="shared" si="3"/>
+        <f>G255^2</f>
         <v>9</v>
       </c>
       <c r="I255" s="1" t="s">
@@ -18980,8 +19753,11 @@
       <c r="W255" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X255" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -19004,7 +19780,7 @@
         <v>2</v>
       </c>
       <c r="H256" s="1">
-        <f t="shared" si="3"/>
+        <f>G256^2</f>
         <v>4</v>
       </c>
       <c r="I256" s="1" t="s">
@@ -19052,8 +19828,11 @@
       <c r="W256" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X256" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -19076,7 +19855,7 @@
         <v>4</v>
       </c>
       <c r="H257" s="1">
-        <f t="shared" si="3"/>
+        <f>G257^2</f>
         <v>16</v>
       </c>
       <c r="I257" s="1" t="s">
@@ -19124,8 +19903,11 @@
       <c r="W257" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X257" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -19148,7 +19930,7 @@
         <v>1</v>
       </c>
       <c r="H258" s="1">
-        <f t="shared" ref="H258:H286" si="4">G258^2</f>
+        <f>G258^2</f>
         <v>1</v>
       </c>
       <c r="I258" s="1" t="s">
@@ -19196,8 +19978,11 @@
       <c r="W258" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X258" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -19220,7 +20005,7 @@
         <v>4</v>
       </c>
       <c r="H259" s="1">
-        <f t="shared" si="4"/>
+        <f>G259^2</f>
         <v>16</v>
       </c>
       <c r="I259" s="1" t="s">
@@ -19268,8 +20053,11 @@
       <c r="W259" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X259" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -19292,7 +20080,7 @@
         <v>4</v>
       </c>
       <c r="H260" s="1">
-        <f t="shared" si="4"/>
+        <f>G260^2</f>
         <v>16</v>
       </c>
       <c r="I260" s="1" t="s">
@@ -19340,8 +20128,11 @@
       <c r="W260" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X260" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -19364,7 +20155,7 @@
         <v>3</v>
       </c>
       <c r="H261" s="1">
-        <f t="shared" si="4"/>
+        <f>G261^2</f>
         <v>9</v>
       </c>
       <c r="I261" s="1" t="s">
@@ -19412,8 +20203,11 @@
       <c r="W261" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X261" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -19436,7 +20230,7 @@
         <v>2</v>
       </c>
       <c r="H262" s="1">
-        <f t="shared" si="4"/>
+        <f>G262^2</f>
         <v>4</v>
       </c>
       <c r="I262" s="1" t="s">
@@ -19484,8 +20278,11 @@
       <c r="W262" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X262" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -19508,7 +20305,7 @@
         <v>3</v>
       </c>
       <c r="H263" s="1">
-        <f t="shared" si="4"/>
+        <f>G263^2</f>
         <v>9</v>
       </c>
       <c r="I263" s="1" t="s">
@@ -19556,8 +20353,11 @@
       <c r="W263" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X263" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -19580,7 +20380,7 @@
         <v>6</v>
       </c>
       <c r="H264" s="1">
-        <f t="shared" si="4"/>
+        <f>G264^2</f>
         <v>36</v>
       </c>
       <c r="I264" s="1" t="s">
@@ -19628,8 +20428,11 @@
       <c r="W264" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X264" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -19652,7 +20455,7 @@
         <v>4</v>
       </c>
       <c r="H265" s="1">
-        <f t="shared" si="4"/>
+        <f>G265^2</f>
         <v>16</v>
       </c>
       <c r="I265" s="1" t="s">
@@ -19700,8 +20503,11 @@
       <c r="W265" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X265" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -19724,7 +20530,7 @@
         <v>3</v>
       </c>
       <c r="H266" s="1">
-        <f t="shared" si="4"/>
+        <f>G266^2</f>
         <v>9</v>
       </c>
       <c r="I266" s="1" t="s">
@@ -19772,8 +20578,11 @@
       <c r="W266" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X266" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -19796,7 +20605,7 @@
         <v>5</v>
       </c>
       <c r="H267" s="1">
-        <f t="shared" si="4"/>
+        <f>G267^2</f>
         <v>25</v>
       </c>
       <c r="I267" s="1" t="s">
@@ -19844,8 +20653,11 @@
       <c r="W267" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X267" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -19868,7 +20680,7 @@
         <v>3</v>
       </c>
       <c r="H268" s="1">
-        <f t="shared" si="4"/>
+        <f>G268^2</f>
         <v>9</v>
       </c>
       <c r="I268" s="1" t="s">
@@ -19916,8 +20728,11 @@
       <c r="W268" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X268" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -19940,7 +20755,7 @@
         <v>6</v>
       </c>
       <c r="H269" s="1">
-        <f t="shared" si="4"/>
+        <f>G269^2</f>
         <v>36</v>
       </c>
       <c r="I269" s="1" t="s">
@@ -19988,8 +20803,11 @@
       <c r="W269" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X269" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -20012,7 +20830,7 @@
         <v>2</v>
       </c>
       <c r="H270" s="1">
-        <f t="shared" si="4"/>
+        <f>G270^2</f>
         <v>4</v>
       </c>
       <c r="I270" s="1" t="s">
@@ -20060,8 +20878,11 @@
       <c r="W270" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X270" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -20084,7 +20905,7 @@
         <v>2</v>
       </c>
       <c r="H271" s="1">
-        <f t="shared" si="4"/>
+        <f>G271^2</f>
         <v>4</v>
       </c>
       <c r="I271" s="1" t="s">
@@ -20132,8 +20953,11 @@
       <c r="W271" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X271" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -20156,7 +20980,7 @@
         <v>3</v>
       </c>
       <c r="H272" s="1">
-        <f t="shared" si="4"/>
+        <f>G272^2</f>
         <v>9</v>
       </c>
       <c r="I272" s="1" t="s">
@@ -20204,8 +21028,11 @@
       <c r="W272" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X272" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -20228,7 +21055,7 @@
         <v>3</v>
       </c>
       <c r="H273" s="1">
-        <f t="shared" si="4"/>
+        <f>G273^2</f>
         <v>9</v>
       </c>
       <c r="I273" s="1" t="s">
@@ -20276,8 +21103,11 @@
       <c r="W273" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X273" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -20300,7 +21130,7 @@
         <v>3</v>
       </c>
       <c r="H274" s="1">
-        <f t="shared" si="4"/>
+        <f>G274^2</f>
         <v>9</v>
       </c>
       <c r="I274" s="1" t="s">
@@ -20348,8 +21178,11 @@
       <c r="W274" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X274" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -20372,7 +21205,7 @@
         <v>5</v>
       </c>
       <c r="H275" s="1">
-        <f t="shared" si="4"/>
+        <f>G275^2</f>
         <v>25</v>
       </c>
       <c r="I275" s="1" t="s">
@@ -20420,8 +21253,11 @@
       <c r="W275" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X275" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -20444,7 +21280,7 @@
         <v>3</v>
       </c>
       <c r="H276" s="1">
-        <f t="shared" si="4"/>
+        <f>G276^2</f>
         <v>9</v>
       </c>
       <c r="I276" s="1" t="s">
@@ -20492,8 +21328,11 @@
       <c r="W276" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X276" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -20516,7 +21355,7 @@
         <v>3</v>
       </c>
       <c r="H277" s="1">
-        <f t="shared" si="4"/>
+        <f>G277^2</f>
         <v>9</v>
       </c>
       <c r="I277" s="1" t="s">
@@ -20564,8 +21403,11 @@
       <c r="W277" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X277" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -20588,7 +21430,7 @@
         <v>6</v>
       </c>
       <c r="H278" s="1">
-        <f t="shared" si="4"/>
+        <f>G278^2</f>
         <v>36</v>
       </c>
       <c r="I278" s="1" t="s">
@@ -20636,8 +21478,11 @@
       <c r="W278" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X278" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -20660,7 +21505,7 @@
         <v>4</v>
       </c>
       <c r="H279" s="1">
-        <f t="shared" si="4"/>
+        <f>G279^2</f>
         <v>16</v>
       </c>
       <c r="I279" s="1" t="s">
@@ -20708,8 +21553,11 @@
       <c r="W279" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X279" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -20732,7 +21580,7 @@
         <v>4</v>
       </c>
       <c r="H280" s="1">
-        <f t="shared" si="4"/>
+        <f>G280^2</f>
         <v>16</v>
       </c>
       <c r="I280" s="1" t="s">
@@ -20780,8 +21628,11 @@
       <c r="W280" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X280" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -20804,7 +21655,7 @@
         <v>3</v>
       </c>
       <c r="H281" s="1">
-        <f t="shared" si="4"/>
+        <f>G281^2</f>
         <v>9</v>
       </c>
       <c r="I281" s="1" t="s">
@@ -20852,8 +21703,11 @@
       <c r="W281" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X281" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -20876,7 +21730,7 @@
         <v>6</v>
       </c>
       <c r="H282" s="1">
-        <f t="shared" si="4"/>
+        <f>G282^2</f>
         <v>36</v>
       </c>
       <c r="I282" s="1" t="s">
@@ -20924,8 +21778,11 @@
       <c r="W282" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X282" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -20948,7 +21805,7 @@
         <v>3</v>
       </c>
       <c r="H283" s="1">
-        <f t="shared" si="4"/>
+        <f>G283^2</f>
         <v>9</v>
       </c>
       <c r="I283" s="1" t="s">
@@ -20996,8 +21853,11 @@
       <c r="W283" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X283" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -21020,7 +21880,7 @@
         <v>6</v>
       </c>
       <c r="H284" s="1">
-        <f t="shared" si="4"/>
+        <f>G284^2</f>
         <v>36</v>
       </c>
       <c r="I284" s="1" t="s">
@@ -21068,8 +21928,11 @@
       <c r="W284" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X284" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -21092,7 +21955,7 @@
         <v>4</v>
       </c>
       <c r="H285" s="1">
-        <f t="shared" si="4"/>
+        <f>G285^2</f>
         <v>16</v>
       </c>
       <c r="I285" s="1" t="s">
@@ -21140,8 +22003,11 @@
       <c r="W285" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X285" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -21164,7 +22030,7 @@
         <v>4</v>
       </c>
       <c r="H286" s="1">
-        <f t="shared" si="4"/>
+        <f>G286^2</f>
         <v>16</v>
       </c>
       <c r="I286" s="1" t="s">
@@ -21210,6 +22076,9 @@
         <v>1</v>
       </c>
       <c r="W286" s="1">
+        <v>1</v>
+      </c>
+      <c r="X286" s="1">
         <v>1</v>
       </c>
     </row>
